--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{952CFBE0-26FE-4B98-8324-5ADA35DAF693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED031C8C-1EBE-401F-A51D-E14E944F0763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,14 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -46,12 +54,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,12 +488,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D19BF-FDDF-4858-8DA2-9336A07F3DE6}">
-  <dimension ref="A1"/>
+  <dimension ref="H12:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="12" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED031C8C-1EBE-401F-A51D-E14E944F0763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0231EF-30B7-4275-AAB9-43A7F5A0F54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0231EF-30B7-4275-AAB9-43A7F5A0F54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC59E0C-D190-4FDC-89A8-42AFF39503EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -491,13 +494,18 @@
   <dimension ref="H12:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="12" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
+    </row>
+    <row r="15" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I24" t="s">

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC59E0C-D190-4FDC-89A8-42AFF39503EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE3B825-5C4E-4427-A615-FADE89A040BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -57,7 +57,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +67,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -83,9 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D19BF-FDDF-4858-8DA2-9336A07F3DE6}">
-  <dimension ref="H12:I24"/>
+  <dimension ref="H12:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +514,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>0</v>
       </c>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE3B825-5C4E-4427-A615-FADE89A040BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A2992A-123E-403B-B48B-F402418FAAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -57,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,12 +70,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,7 +89,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +498,7 @@
   <dimension ref="H12:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,10 +511,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>0</v>
       </c>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A2992A-123E-403B-B48B-F402418FAAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AD0C23-7A1B-438C-BF48-1ADB96504185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -86,10 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D19BF-FDDF-4858-8DA2-9336A07F3DE6}">
-  <dimension ref="H12:J24"/>
+  <dimension ref="H12:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
@@ -511,15 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="J19" s="2"/>
-    </row>
-    <row r="24" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>0</v>
       </c>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AD0C23-7A1B-438C-BF48-1ADB96504185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2E2EC4-4238-48FE-A37E-99A5B2CAB7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -494,7 +494,7 @@
   <dimension ref="H12:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,6 +507,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>0</v>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2E2EC4-4238-48FE-A37E-99A5B2CAB7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA3551-BF72-4CD2-8008-D1E88CF15A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -494,15 +494,20 @@
   <dimension ref="H12:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="12" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
     </row>
-    <row r="15" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>1</v>
       </c>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA3551-BF72-4CD2-8008-D1E88CF15A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8E9334-F4B7-42B3-883E-88FA4F73F7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D19BF-FDDF-4858-8DA2-9336A07F3DE6}">
-  <dimension ref="H12:I24"/>
+  <dimension ref="G10:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
@@ -499,15 +499,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="12" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
     </row>
-    <row r="14" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>1</v>
       </c>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8E9334-F4B7-42B3-883E-88FA4F73F7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7044A504-EA6E-49B0-BD0E-1E98A0F7CD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
@@ -83,9 +86,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,31 +495,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D19BF-FDDF-4858-8DA2-9336A07F3DE6}">
-  <dimension ref="G10:I24"/>
+  <dimension ref="D7:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H12" s="1"/>
-    </row>
-    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I14" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H15" t="s">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" t="s">

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7044A504-EA6E-49B0-BD0E-1E98A0F7CD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB34C20-8F1E-4CD0-A020-0E1E201DF131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -60,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,6 +70,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -88,8 +94,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,82 +501,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D19BF-FDDF-4858-8DA2-9336A07F3DE6}">
-  <dimension ref="D7:J24"/>
+  <dimension ref="D5:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" t="s">

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB34C20-8F1E-4CD0-A020-0E1E201DF131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B17778-C2D9-4AAE-8550-410DB37D7C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -45,6 +45,33 @@
   </si>
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -60,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,12 +97,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,7 +116,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,41 +522,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D19BF-FDDF-4858-8DA2-9336A07F3DE6}">
-  <dimension ref="D5:I24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E5" s="2"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="Q10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
         <v>1</v>
       </c>
@@ -551,6 +651,14 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{D7363CCA-5C9D-4D2B-B707-24C174931BB4}">
+      <formula1>$Q$4:$Q$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{971B2606-4B27-4325-A620-1A446F94C2EC}">
+      <formula1>$S$6:$S$11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B17778-C2D9-4AAE-8550-410DB37D7C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1835D96-9643-42C5-84F6-B40382DE3901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Allows us to restrict the data type to a certain form.</t>
   </si>
 </sst>
 </file>
@@ -113,10 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +527,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +568,6 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
       <c r="Q5" t="s">
         <v>4</v>
       </c>
@@ -633,6 +634,9 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1835D96-9643-42C5-84F6-B40382DE3901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67490C8-741F-439A-8C18-2B69B748ACB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Allows us to restrict the data type to a certain form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      c</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,6 +637,9 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
       </c>
       <c r="Q15" t="s">
         <v>12</v>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67490C8-741F-439A-8C18-2B69B748ACB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A079C133-5AC6-48D9-8A66-BD7DA7319A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <t>Allows us to restrict the data type to a certain form.</t>
   </si>
   <si>
-    <t xml:space="preserve">      c</t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A079C133-5AC6-48D9-8A66-BD7DA7319A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D9B52-9216-4872-B049-91A2025DA22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,6 +638,9 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
       <c r="H15" t="s">
         <v>1</v>
       </c>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D9B52-9216-4872-B049-91A2025DA22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E3C2C5-F65B-43DD-B0CB-0CA44FF46483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -533,7 +533,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,6 +631,9 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I14" t="s">

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E3C2C5-F65B-43DD-B0CB-0CA44FF46483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E507B9-3B74-4232-A8E6-467F847AAE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -533,7 +533,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,12 +659,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>0</v>
       </c>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E507B9-3B74-4232-A8E6-467F847AAE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999D10B8-E4F7-41DE-BFC1-966BF71980A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -533,7 +533,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,6 +656,9 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
         <v>1</v>
       </c>
     </row>
